--- a/snacks/aloo pakoda recipe/Aloo Pakoda recipe.xlsx
+++ b/snacks/aloo pakoda recipe/Aloo Pakoda recipe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nandi\Google Drive\recipies\snacks\aloo pakoda recipe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A7CD24-E20D-4A7A-A025-AA6B58D8250F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85EB6B79-6343-4F29-96F9-69BBC6630FA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{134C7825-DF8B-42D3-A51C-71C91B0E6488}"/>
   </bookViews>
@@ -641,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22E1998A-25FC-42BE-BFFC-DAF05717235E}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,15 +703,18 @@
       <c r="A3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="14"/>
+      <c r="B3" s="20">
+        <f t="shared" ref="B3:B13" si="0">(E3/F3)*D3</f>
+        <v>7.5</v>
+      </c>
       <c r="C3" s="15" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3" s="17">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="F3" s="18">
         <v>4</v>
@@ -722,14 +725,14 @@
         <v>6</v>
       </c>
       <c r="B4" s="20">
-        <f t="shared" ref="B4:B13" si="0">(E4/F4)*D4</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>1.25</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4" s="22">
         <v>1</v>
@@ -745,12 +748,15 @@
       <c r="A5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="14"/>
+      <c r="B5" s="20">
+        <f t="shared" si="0"/>
+        <v>0.9375</v>
+      </c>
       <c r="C5" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5" s="17">
         <v>0.75</v>
@@ -765,13 +771,13 @@
       </c>
       <c r="B6" s="20">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E6" s="22">
         <v>2</v>
@@ -786,13 +792,13 @@
       </c>
       <c r="B7" s="14">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.3125</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E7" s="17">
         <v>0.25</v>
@@ -807,13 +813,13 @@
       </c>
       <c r="B8" s="20">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E8" s="22">
         <v>0.5</v>
@@ -831,13 +837,13 @@
       </c>
       <c r="B9" s="14">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E9" s="17">
         <v>0.5</v>
@@ -852,13 +858,13 @@
       </c>
       <c r="B10" s="20">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E10" s="22">
         <v>3</v>
@@ -873,13 +879,13 @@
       </c>
       <c r="B11" s="14">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E11" s="17">
         <v>1</v>
@@ -894,13 +900,13 @@
       </c>
       <c r="B12" s="20">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E12" s="22">
         <v>0.5</v>
@@ -915,13 +921,13 @@
       </c>
       <c r="B13" s="14">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.9375</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E13" s="17">
         <v>0.75</v>
